--- a/biology/Botanique/Balaka_seemannii/Balaka_seemannii.xlsx
+++ b/biology/Botanique/Balaka_seemannii/Balaka_seemannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Balaka seemannii  est une espèce de plantes à fleurs du genre Balaka et de la famille des Arecaceae (les palmiers). Il est endémique des îles Fidji, où il pousse dans la forêt tropicale sur Vanua Levu et Taveuni.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un élégant petit palmier qui peut atteindre 6 à 7 mètres dans son environnement naturel , mais majoritairement en moyenne de 2 mètres de hauteur. Il a un tronc mince, rarement plus de 3 à 4 cm de diamètre avec des colorations attrayantes entre gris et brun , la partie haute légèrement plus foncé. Il ne déploie que 6 à 7 palmes d’environ 1,5 mètre au maximum . Les folioles sont très larges et en forme de triangle dans le même style que celles du genre Caryota. Les fruits sont rouges, ellipsoïdes et légèrement pointus à maturité.
 C’est un palmier commun qui a été utilisé comme lances et comme bâtons de marche .
